--- a/FinalResults - kopie.xlsx
+++ b/FinalResults - kopie.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland Leferink\PycharmProjects\scriptie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106ED68-606C-4F30-9A82-4D912E0C51FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E49ECEE-261F-4F1B-975A-AF7D905E3FEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2475" yWindow="2070" windowWidth="20610" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controversieel" sheetId="1" r:id="rId1"/>
     <sheet name="Niet Controversieel" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Controversieel!$A$1:$I$51</definedName>
     <definedName name="Z_59DCE23C_CE72_4939_A4F9_25FEEA9E2BAC_.wvu.FilterData" localSheetId="0" hidden="1">Controversieel!$A$1:$I$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1322,18 +1323,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1348,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1360,17 +1355,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="190">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1378,7 +1381,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1386,7 +1389,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1394,7 +1397,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF00B0F0"/>
+          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1402,7 +1405,23 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF002060"/>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1410,21 +1429,143 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF002060"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1465,8 +1606,17 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1515,7 +1665,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF002060"/>
+          <fgColor rgb="FF00B0F0"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1523,22 +1673,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
+          <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1581,1134 +1717,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7030A0"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA4335"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDD868"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2935,9 +1943,9 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2982,161 +1990,161 @@
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>43857.711736111109</v>
+        <v>43808.521238425928</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>348</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>43858.748645833337</v>
+        <v>43867.506261574075</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>43845.502986111111</v>
+        <v>43808.529907407406</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>43858.403356481482</v>
+        <v>43817.134189814817</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>352</v>
+        <v>290</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>43867.506261574075</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
+        <v>43823.70957175926</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>43808.521238425928</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>43808.540405092594</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>235</v>
@@ -3145,320 +2153,320 @@
         <v>236</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>43808.529907407406</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>43808.862372685187</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>22</v>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>43817.134189814817</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
+        <v>43874.550219907411</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>287</v>
+        <v>357</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>288</v>
+        <v>383</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>290</v>
+        <v>385</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>291</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>43874.550219907411</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>43845.502986111111</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>43893.891377314816</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="4" t="s">
+        <v>43846.638298611113</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>409</v>
+        <v>331</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>411</v>
+        <v>328</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>412</v>
+        <v>336</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>413</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>43846.638298611113</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>43858.748645833337</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>43887.686412037037</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>43808.585150462961</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>400</v>
+        <v>259</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>395</v>
+        <v>260</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>399</v>
+        <v>261</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>401</v>
+        <v>238</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>402</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>43878.420092592591</v>
-      </c>
-      <c r="B14" s="2" t="s">
+        <v>43857.711736111109</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>388</v>
+        <v>346</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>389</v>
+        <v>347</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>390</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>43819.430891203701</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
+        <v>43873.937939814816</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
+      <c r="D15" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>293</v>
+        <v>376</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>294</v>
+        <v>377</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>296</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>43823.70957175926</v>
-      </c>
-      <c r="B16" s="2" t="s">
+        <v>43858.403356481482</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
+      <c r="C16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>292</v>
+        <v>349</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>308</v>
+        <v>351</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>43808.540405092594</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>43811.61515046296</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>43808.862372685187</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <v>43808.560358796298</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>18</v>
+      <c r="D18" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>236</v>
@@ -3467,859 +2475,859 @@
         <v>253</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>43808.585150462961</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
+        <v>43809.587395833332</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>43873.937939814816</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>43851.655717592592</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>43888.501238425924</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>43838.814837962964</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>403</v>
+        <v>314</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>406</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>43838.814837962964</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>43874.52375</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>315</v>
+        <v>380</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>319</v>
+        <v>382</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>43871.403981481482</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>43851.919710648152</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>43851.655717592592</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
+        <v>43808.561261574076</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>338</v>
+        <v>235</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>43874.52375</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>43821.593680555554</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>381</v>
+        <v>299</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>382</v>
+        <v>300</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>43851.919710648152</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
+        <v>43811.333148148151</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>338</v>
+        <v>263</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>43871.670127314814</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
+        <v>43808.553287037037</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>369</v>
+        <v>248</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>370</v>
+        <v>249</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>375</v>
+        <v>251</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>43808.560358796298</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
+        <v>43846.552187499998</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>235</v>
+        <v>331</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>253</v>
+        <v>328</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>254</v>
+        <v>333</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>255</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>43811.61515046296</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="4" t="s">
+        <v>43840.4765625</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>26</v>
+      <c r="D29" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>263</v>
+        <v>321</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>43809.587395833332</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="4" t="s">
+        <v>43836.504826388889</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>26</v>
+      <c r="D30" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>253</v>
+        <v>311</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>43821.593680555554</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>43808.663344907407</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>36</v>
+      <c r="D31" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>298</v>
+        <v>236</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>301</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>43808.553287037037</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>43838.467361111114</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>43808.561261574076</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>43866.558495370373</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>253</v>
+        <v>359</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>257</v>
+        <v>360</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>258</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>43846.552187499998</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>36</v>
+        <v>43809.465578703705</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>331</v>
+        <v>269</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>328</v>
+        <v>253</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>333</v>
+        <v>271</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>334</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>43811.333148148151</v>
-      </c>
-      <c r="B35" s="2" t="s">
+        <v>43821.937835648147</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>36</v>
+      <c r="C35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>43840.4765625</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>35</v>
+        <v>43866.821099537039</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>43810.949687499997</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>32</v>
+        <v>43808.683553240742</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>43836.504826388889</v>
-      </c>
-      <c r="B38" s="2" t="s">
+        <v>43821.622245370374</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>32</v>
+      <c r="C38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>292</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>43889.73636574074</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>43819.430891203701</v>
+      </c>
+      <c r="B39" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>32</v>
+      <c r="C39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>403</v>
+        <v>292</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>395</v>
+        <v>293</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>407</v>
+        <v>294</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>408</v>
+        <v>295</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>398</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>43808.663344907407</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>43893.891377314816</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>235</v>
+        <v>409</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>253</v>
+        <v>411</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>239</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>43838.467361111114</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>34</v>
+        <v>43887.686412037037</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>314</v>
+        <v>400</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>316</v>
+        <v>399</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>318</v>
+        <v>402</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43866.558495370373</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>38</v>
+        <v>43878.420092592591</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>357</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>43800.93613425926</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4" t="s">
+        <v>43871.403981481482</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>16</v>
+      <c r="D43" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>230</v>
+        <v>369</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>231</v>
+        <v>370</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>234</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43866.821099537039</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>16</v>
+        <v>43871.670127314814</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>43885.413113425922</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>16</v>
+        <v>43888.501238425924</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>43885.631990740738</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>16</v>
+        <v>43810.949687499997</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>357</v>
+        <v>274</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>399</v>
+        <v>276</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>398</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>43882.45721064815</v>
-      </c>
-      <c r="B47" s="2" t="s">
+        <v>43889.73636574074</v>
+      </c>
+      <c r="B47" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>16</v>
+      <c r="C47" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>43809.465578703705</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>43800.93613425926</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>15</v>
@@ -4328,111 +3336,111 @@
         <v>16</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>43821.937835648147</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="4" t="s">
+        <v>43885.413113425922</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>43808.683553240742</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="4" t="s">
+        <v>43885.631990740738</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>263</v>
+        <v>357</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>253</v>
+        <v>399</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>264</v>
+        <v>397</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>265</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>43821.622245370374</v>
-      </c>
-      <c r="B51" s="2" t="s">
+        <v>43882.45721064815</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>302</v>
+        <v>391</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>305</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I51">
-    <sortCondition sortBy="cellColor" ref="H2:H51" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="I2:I51" dxfId="2"/>
     <sortCondition ref="D2:D51"/>
   </sortState>
   <customSheetViews>
@@ -4441,29 +3449,6 @@
       <autoFilter ref="A1:I58" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="E1:I1048576">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="amnesty.nl">
-      <formula>NOT(ISERROR(SEARCH("amnesty.nl",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="dagelijksestandaard.nl">
-      <formula>NOT(ISERROR(SEARCH("dagelijksestandaard.nl",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="fiom.nl">
-      <formula>NOT(ISERROR(SEARCH("fiom.nl",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="jalta.nl">
-      <formula>NOT(ISERROR(SEARCH("jalta.nl",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="joop.bnnvara.nl">
-      <formula>NOT(ISERROR(SEARCH("joop.bnnvara.nl",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="laatjevaccineren.be">
-      <formula>NOT(ISERROR(SEARCH("laatjevaccineren.be",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="larsvanhemmen.nl">
-      <formula>NOT(ISERROR(SEARCH("larsvanhemmen.nl",E1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4478,7 +3463,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
